--- a/June/Others/Daily requisition analysis of Tulip -2, Bagha..xlsx
+++ b/June/Others/Daily requisition analysis of Tulip -2, Bagha..xlsx
@@ -487,9 +487,6 @@
     <t>D38i</t>
   </si>
   <si>
-    <t>Black/Darkblue</t>
-  </si>
-  <si>
     <t>D54+</t>
   </si>
   <si>
@@ -550,7 +547,10 @@
     <t>Black_Impessionist_blue</t>
   </si>
   <si>
-    <t>16.06.19</t>
+    <t>17.06.19</t>
+  </si>
+  <si>
+    <t>Blue_Black</t>
   </si>
 </sst>
 </file>
@@ -1213,7 +1213,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E152" sqref="E152"/>
+      <selection pane="bottomRight" activeCell="E146" sqref="E146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
@@ -1258,7 +1258,7 @@
         <v>73</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="6" customFormat="1" ht="12.75">
@@ -1321,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" hidden="1">
@@ -1337,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" hidden="1">
@@ -1353,23 +1353,25 @@
         <v>0</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15" hidden="1">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15">
       <c r="A10" s="11" t="s">
         <v>136</v>
       </c>
       <c r="B10" s="12">
         <v>901.24749999999995</v>
       </c>
-      <c r="C10" s="11"/>
+      <c r="C10" s="11">
+        <v>10</v>
+      </c>
       <c r="D10" s="13">
         <f>B10*C10</f>
-        <v>0</v>
+        <v>9012.4749999999985</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15" hidden="1">
@@ -1385,7 +1387,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15" hidden="1">
@@ -1401,7 +1403,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" hidden="1">
@@ -1479,7 +1481,7 @@
     </row>
     <row r="18" spans="1:5" ht="15" hidden="1">
       <c r="A18" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B18" s="12">
         <v>1140.8499999999999</v>
@@ -1490,7 +1492,7 @@
         <v>0</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15" hidden="1">
@@ -1506,7 +1508,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
@@ -1596,7 +1598,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" hidden="1">
@@ -1629,20 +1631,22 @@
         <v>132</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
+    <row r="28" spans="1:5" s="5" customFormat="1" ht="15">
       <c r="A28" s="14" t="s">
         <v>150</v>
       </c>
       <c r="B28" s="15">
         <v>5607.99</v>
       </c>
-      <c r="C28" s="11"/>
+      <c r="C28" s="11">
+        <v>2</v>
+      </c>
       <c r="D28" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11215.98</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="15" hidden="1">
@@ -1869,22 +1873,20 @@
         <v>140</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15">
+    <row r="44" spans="1:5" ht="15" hidden="1">
       <c r="A44" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B44" s="12">
         <v>5334.3029999999999</v>
       </c>
-      <c r="C44" s="11">
-        <v>20</v>
-      </c>
+      <c r="C44" s="11"/>
       <c r="D44" s="13">
         <f t="shared" si="0"/>
-        <v>106686.06</v>
+        <v>0</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15" hidden="1">
@@ -1919,7 +1921,7 @@
     </row>
     <row r="47" spans="1:5" ht="15" hidden="1">
       <c r="A47" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B47" s="12">
         <v>5793.45</v>
@@ -1930,7 +1932,7 @@
         <v>0</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="15" hidden="1">
@@ -1978,7 +1980,7 @@
         <v>0</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15" hidden="1">
@@ -2072,7 +2074,7 @@
         <v>0</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="15" hidden="1">
@@ -2147,20 +2149,22 @@
       </c>
       <c r="E61" s="11"/>
     </row>
-    <row r="62" spans="1:5" ht="15" hidden="1">
+    <row r="62" spans="1:5" ht="15">
       <c r="A62" s="11" t="s">
         <v>147</v>
       </c>
       <c r="B62" s="34">
         <v>1169.9175</v>
       </c>
-      <c r="C62" s="11"/>
+      <c r="C62" s="11">
+        <v>20</v>
+      </c>
       <c r="D62" s="13">
         <f>B62*C62</f>
-        <v>0</v>
+        <v>23398.35</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>132</v>
+        <v>177</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="15" hidden="1">
@@ -2179,17 +2183,19 @@
         <v>76</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="15" hidden="1">
+    <row r="64" spans="1:5" ht="15">
       <c r="A64" s="11" t="s">
         <v>144</v>
       </c>
       <c r="B64" s="33">
         <v>1053.6275000000001</v>
       </c>
-      <c r="C64" s="11"/>
+      <c r="C64" s="11">
+        <v>20</v>
+      </c>
       <c r="D64" s="13">
         <f>B64*C64</f>
-        <v>0</v>
+        <v>21072.550000000003</v>
       </c>
       <c r="E64" s="11" t="s">
         <v>138</v>
@@ -2225,25 +2231,27 @@
         <v>81</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="15" hidden="1">
+    <row r="67" spans="1:5" ht="15">
       <c r="A67" s="11" t="s">
         <v>142</v>
       </c>
       <c r="B67" s="12">
         <v>1024.56</v>
       </c>
-      <c r="C67" s="11"/>
+      <c r="C67" s="11">
+        <v>10</v>
+      </c>
       <c r="D67" s="13">
         <f>B67*C67</f>
-        <v>0</v>
+        <v>10245.599999999999</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="15" hidden="1">
       <c r="A68" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B68" s="12">
         <v>1077.6875</v>
@@ -2257,20 +2265,22 @@
         <v>81</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="15" hidden="1">
+    <row r="69" spans="1:5" ht="15">
       <c r="A69" s="11" t="s">
         <v>126</v>
       </c>
       <c r="B69" s="31">
         <v>4165.3874999999998</v>
       </c>
-      <c r="C69" s="11"/>
+      <c r="C69" s="11">
+        <v>2</v>
+      </c>
       <c r="D69" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8330.7749999999996</v>
       </c>
       <c r="E69" s="11" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="15" hidden="1">
@@ -2287,25 +2297,27 @@
       </c>
       <c r="E70" s="11"/>
     </row>
-    <row r="71" spans="1:5" ht="15" hidden="1">
+    <row r="71" spans="1:5" ht="15">
       <c r="A71" s="11" t="s">
         <v>137</v>
       </c>
       <c r="B71" s="12">
         <v>1014.53</v>
       </c>
-      <c r="C71" s="11"/>
+      <c r="C71" s="11">
+        <v>10</v>
+      </c>
       <c r="D71" s="13">
         <f>B71*C71</f>
-        <v>0</v>
+        <v>10145.299999999999</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>156</v>
+        <v>83</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="15" hidden="1">
       <c r="A72" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B72" s="12">
         <v>1092.7249999999999</v>
@@ -2316,7 +2328,7 @@
         <v>0</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="15" hidden="1">
@@ -2362,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="E75" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="15" hidden="1">
@@ -2394,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="15" hidden="1">
@@ -3075,20 +3087,22 @@
       </c>
       <c r="E121" s="11"/>
     </row>
-    <row r="122" spans="1:5" ht="15" hidden="1">
+    <row r="122" spans="1:5" ht="15">
       <c r="A122" s="11" t="s">
         <v>117</v>
       </c>
       <c r="B122" s="12">
         <v>4389.95</v>
       </c>
-      <c r="C122" s="11"/>
+      <c r="C122" s="11">
+        <v>3</v>
+      </c>
       <c r="D122" s="13">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>13169.849999999999</v>
       </c>
       <c r="E122" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="15" hidden="1">
@@ -3136,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="E125" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="15" hidden="1">
@@ -3253,7 +3267,7 @@
     </row>
     <row r="133" spans="1:9" ht="15" hidden="1">
       <c r="A133" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B133" s="12">
         <v>8599.4500000000007</v>
@@ -3290,11 +3304,11 @@
       <c r="B135" s="41"/>
       <c r="C135" s="19">
         <f>SUM(C5:C134)</f>
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="D135" s="20">
         <f>SUBTOTAL(9,D5:D134)</f>
-        <v>106686.06</v>
+        <v>106590.87999999998</v>
       </c>
       <c r="E135" s="19"/>
     </row>
@@ -3341,7 +3355,7 @@
         <v>68</v>
       </c>
       <c r="C140" s="32">
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="D140" s="11"/>
       <c r="E140" s="22"/>
@@ -3395,7 +3409,7 @@
       </c>
       <c r="C145" s="29">
         <f>SUM(C139:C144)</f>
-        <v>0</v>
+        <v>110000</v>
       </c>
       <c r="D145" s="30"/>
       <c r="E145" s="22"/>

--- a/June/Others/Daily requisition analysis of Tulip -2, Bagha..xlsx
+++ b/June/Others/Daily requisition analysis of Tulip -2, Bagha..xlsx
@@ -493,9 +493,6 @@
     <t xml:space="preserve"> Gold</t>
   </si>
   <si>
-    <t xml:space="preserve">Black </t>
-  </si>
-  <si>
     <t>Black_Blue</t>
   </si>
   <si>
@@ -547,10 +544,13 @@
     <t>Black_Impessionist_blue</t>
   </si>
   <si>
-    <t>17.06.19</t>
-  </si>
-  <si>
-    <t>Blue_Black</t>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>18.06.19</t>
+  </si>
+  <si>
+    <t>Black&amp;Gold</t>
   </si>
 </sst>
 </file>
@@ -1213,7 +1213,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E146" sqref="E146"/>
+      <selection pane="bottomRight" activeCell="H141" sqref="H141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
@@ -1321,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15" hidden="1">
@@ -1337,7 +1337,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15" hidden="1">
@@ -1353,22 +1353,20 @@
         <v>0</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15" hidden="1">
       <c r="A10" s="11" t="s">
         <v>136</v>
       </c>
       <c r="B10" s="12">
         <v>901.24749999999995</v>
       </c>
-      <c r="C10" s="11">
-        <v>10</v>
-      </c>
+      <c r="C10" s="11"/>
       <c r="D10" s="13">
         <f>B10*C10</f>
-        <v>9012.4749999999985</v>
+        <v>0</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>83</v>
@@ -1387,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="15" hidden="1">
@@ -1403,7 +1401,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="15" hidden="1">
@@ -1508,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
@@ -1598,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15" hidden="1">
@@ -1631,19 +1629,17 @@
         <v>132</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="5" customFormat="1" ht="15">
+    <row r="28" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
       <c r="A28" s="14" t="s">
         <v>150</v>
       </c>
       <c r="B28" s="15">
         <v>5607.99</v>
       </c>
-      <c r="C28" s="11">
-        <v>2</v>
-      </c>
+      <c r="C28" s="11"/>
       <c r="D28" s="16">
         <f t="shared" si="0"/>
-        <v>11215.98</v>
+        <v>0</v>
       </c>
       <c r="E28" s="14" t="s">
         <v>81</v>
@@ -1691,20 +1687,22 @@
       </c>
       <c r="E31" s="11"/>
     </row>
-    <row r="32" spans="1:5" s="5" customFormat="1" ht="15" hidden="1">
+    <row r="32" spans="1:5" s="5" customFormat="1" ht="15">
       <c r="A32" s="14" t="s">
         <v>94</v>
       </c>
       <c r="B32" s="15">
         <v>1159.8900000000001</v>
       </c>
-      <c r="C32" s="11"/>
+      <c r="C32" s="11">
+        <v>10</v>
+      </c>
       <c r="D32" s="16">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>11598.900000000001</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>76</v>
+        <v>177</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15" hidden="1">
@@ -1875,7 +1873,7 @@
     </row>
     <row r="44" spans="1:5" ht="15" hidden="1">
       <c r="A44" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B44" s="12">
         <v>5334.3029999999999</v>
@@ -1886,7 +1884,7 @@
         <v>0</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15" hidden="1">
@@ -1921,7 +1919,7 @@
     </row>
     <row r="47" spans="1:5" ht="15" hidden="1">
       <c r="A47" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B47" s="12">
         <v>5793.45</v>
@@ -1932,7 +1930,7 @@
         <v>0</v>
       </c>
       <c r="E47" s="11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="15" hidden="1">
@@ -1980,7 +1978,7 @@
         <v>0</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15" hidden="1">
@@ -2074,7 +2072,7 @@
         <v>0</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="15" hidden="1">
@@ -2164,7 +2162,7 @@
         <v>23398.35</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>177</v>
+        <v>132</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="15" hidden="1">
@@ -2231,27 +2229,25 @@
         <v>81</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="15">
+    <row r="67" spans="1:5" ht="15" hidden="1">
       <c r="A67" s="11" t="s">
         <v>142</v>
       </c>
       <c r="B67" s="12">
         <v>1024.56</v>
       </c>
-      <c r="C67" s="11">
-        <v>10</v>
-      </c>
+      <c r="C67" s="11"/>
       <c r="D67" s="13">
         <f>B67*C67</f>
-        <v>10245.599999999999</v>
+        <v>0</v>
       </c>
       <c r="E67" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="15" hidden="1">
       <c r="A68" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B68" s="12">
         <v>1077.6875</v>
@@ -2265,19 +2261,17 @@
         <v>81</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="15">
+    <row r="69" spans="1:5" ht="15" hidden="1">
       <c r="A69" s="11" t="s">
         <v>126</v>
       </c>
       <c r="B69" s="31">
         <v>4165.3874999999998</v>
       </c>
-      <c r="C69" s="11">
-        <v>2</v>
-      </c>
+      <c r="C69" s="11"/>
       <c r="D69" s="13">
         <f t="shared" si="0"/>
-        <v>8330.7749999999996</v>
+        <v>0</v>
       </c>
       <c r="E69" s="11" t="s">
         <v>76</v>
@@ -2297,19 +2291,17 @@
       </c>
       <c r="E70" s="11"/>
     </row>
-    <row r="71" spans="1:5" ht="15">
+    <row r="71" spans="1:5" ht="15" hidden="1">
       <c r="A71" s="11" t="s">
         <v>137</v>
       </c>
       <c r="B71" s="12">
         <v>1014.53</v>
       </c>
-      <c r="C71" s="11">
-        <v>10</v>
-      </c>
+      <c r="C71" s="11"/>
       <c r="D71" s="13">
         <f>B71*C71</f>
-        <v>10145.299999999999</v>
+        <v>0</v>
       </c>
       <c r="E71" s="11" t="s">
         <v>83</v>
@@ -2317,7 +2309,7 @@
     </row>
     <row r="72" spans="1:5" ht="15" hidden="1">
       <c r="A72" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B72" s="12">
         <v>1092.7249999999999</v>
@@ -2328,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="15" hidden="1">
@@ -2374,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="E75" s="11" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="15" hidden="1">
@@ -2406,7 +2398,7 @@
         <v>0</v>
       </c>
       <c r="E77" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="15" hidden="1">
@@ -3087,19 +3079,17 @@
       </c>
       <c r="E121" s="11"/>
     </row>
-    <row r="122" spans="1:5" ht="15">
+    <row r="122" spans="1:5" ht="15" hidden="1">
       <c r="A122" s="11" t="s">
         <v>117</v>
       </c>
       <c r="B122" s="12">
         <v>4389.95</v>
       </c>
-      <c r="C122" s="11">
-        <v>3</v>
-      </c>
+      <c r="C122" s="11"/>
       <c r="D122" s="13">
         <f t="shared" si="3"/>
-        <v>13169.849999999999</v>
+        <v>0</v>
       </c>
       <c r="E122" s="11" t="s">
         <v>157</v>
@@ -3150,7 +3140,7 @@
         <v>0</v>
       </c>
       <c r="E125" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="15" hidden="1">
@@ -3267,7 +3257,7 @@
     </row>
     <row r="133" spans="1:9" ht="15" hidden="1">
       <c r="A133" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B133" s="12">
         <v>8599.4500000000007</v>
@@ -3304,11 +3294,11 @@
       <c r="B135" s="41"/>
       <c r="C135" s="19">
         <f>SUM(C5:C134)</f>
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="D135" s="20">
         <f>SUBTOTAL(9,D5:D134)</f>
-        <v>106590.87999999998</v>
+        <v>56069.8</v>
       </c>
       <c r="E135" s="19"/>
     </row>
@@ -3355,7 +3345,7 @@
         <v>68</v>
       </c>
       <c r="C140" s="32">
-        <v>110000</v>
+        <v>170000</v>
       </c>
       <c r="D140" s="11"/>
       <c r="E140" s="22"/>
@@ -3409,7 +3399,7 @@
       </c>
       <c r="C145" s="29">
         <f>SUM(C139:C144)</f>
-        <v>110000</v>
+        <v>170000</v>
       </c>
       <c r="D145" s="30"/>
       <c r="E145" s="22"/>

--- a/June/Others/Daily requisition analysis of Tulip -2, Bagha..xlsx
+++ b/June/Others/Daily requisition analysis of Tulip -2, Bagha..xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="177">
   <si>
     <t>Model Name</t>
   </si>
@@ -544,13 +544,10 @@
     <t>Black_Impessionist_blue</t>
   </si>
   <si>
-    <t>Blue</t>
-  </si>
-  <si>
-    <t>18.06.19</t>
-  </si>
-  <si>
     <t>Black&amp;Gold</t>
+  </si>
+  <si>
+    <t>19.06.19</t>
   </si>
 </sst>
 </file>
@@ -1213,7 +1210,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="H141" sqref="H141"/>
+      <selection pane="bottomRight" activeCell="E75" sqref="E75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
@@ -1356,17 +1353,19 @@
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="15" hidden="1">
+    <row r="10" spans="1:5" ht="15">
       <c r="A10" s="11" t="s">
         <v>136</v>
       </c>
       <c r="B10" s="12">
         <v>901.24749999999995</v>
       </c>
-      <c r="C10" s="11"/>
+      <c r="C10" s="11">
+        <v>10</v>
+      </c>
       <c r="D10" s="13">
         <f>B10*C10</f>
-        <v>0</v>
+        <v>9012.4749999999985</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>83</v>
@@ -1659,19 +1658,23 @@
       </c>
       <c r="E29" s="11"/>
     </row>
-    <row r="30" spans="1:5" ht="15" hidden="1">
+    <row r="30" spans="1:5" ht="15">
       <c r="A30" s="11" t="s">
         <v>123</v>
       </c>
       <c r="B30" s="12">
         <v>1014.53</v>
       </c>
-      <c r="C30" s="11"/>
+      <c r="C30" s="11">
+        <v>60</v>
+      </c>
       <c r="D30" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E30" s="11"/>
+        <v>60871.799999999996</v>
+      </c>
+      <c r="E30" s="11" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="31" spans="1:5" ht="15" hidden="1">
       <c r="A31" s="11" t="s">
@@ -1695,14 +1698,14 @@
         <v>1159.8900000000001</v>
       </c>
       <c r="C32" s="11">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="D32" s="16">
         <f t="shared" si="0"/>
-        <v>11598.900000000001</v>
+        <v>34796.700000000004</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15" hidden="1">
@@ -1807,17 +1810,19 @@
         <v>76</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15" hidden="1">
+    <row r="40" spans="1:5" ht="15">
       <c r="A40" s="11" t="s">
         <v>115</v>
       </c>
       <c r="B40" s="12">
-        <v>2788.96</v>
-      </c>
-      <c r="C40" s="11"/>
+        <v>2710.76</v>
+      </c>
+      <c r="C40" s="11">
+        <v>2</v>
+      </c>
       <c r="D40" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5421.52</v>
       </c>
       <c r="E40" s="14" t="s">
         <v>140</v>
@@ -1871,17 +1876,19 @@
         <v>140</v>
       </c>
     </row>
-    <row r="44" spans="1:5" ht="15" hidden="1">
+    <row r="44" spans="1:5" ht="15">
       <c r="A44" s="11" t="s">
         <v>173</v>
       </c>
       <c r="B44" s="12">
         <v>5334.3029999999999</v>
       </c>
-      <c r="C44" s="11"/>
+      <c r="C44" s="11">
+        <v>12</v>
+      </c>
       <c r="D44" s="13">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>64011.635999999999</v>
       </c>
       <c r="E44" s="11" t="s">
         <v>174</v>
@@ -2189,11 +2196,11 @@
         <v>1053.6275000000001</v>
       </c>
       <c r="C64" s="11">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D64" s="13">
         <f>B64*C64</f>
-        <v>21072.550000000003</v>
+        <v>10536.275000000001</v>
       </c>
       <c r="E64" s="11" t="s">
         <v>138</v>
@@ -2291,20 +2298,22 @@
       </c>
       <c r="E70" s="11"/>
     </row>
-    <row r="71" spans="1:5" ht="15" hidden="1">
+    <row r="71" spans="1:5" ht="15">
       <c r="A71" s="11" t="s">
         <v>137</v>
       </c>
       <c r="B71" s="12">
         <v>1014.53</v>
       </c>
-      <c r="C71" s="11"/>
+      <c r="C71" s="11">
+        <v>50</v>
+      </c>
       <c r="D71" s="13">
         <f>B71*C71</f>
-        <v>0</v>
+        <v>50726.5</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="15" hidden="1">
@@ -2353,20 +2362,22 @@
       </c>
       <c r="E74" s="11"/>
     </row>
-    <row r="75" spans="1:5" ht="15" hidden="1">
+    <row r="75" spans="1:5" ht="15">
       <c r="A75" s="11" t="s">
         <v>139</v>
       </c>
       <c r="B75" s="12">
         <v>1072.675</v>
       </c>
-      <c r="C75" s="11"/>
+      <c r="C75" s="11">
+        <v>10</v>
+      </c>
       <c r="D75" s="13">
         <f>C75*B75</f>
-        <v>0</v>
+        <v>10726.75</v>
       </c>
       <c r="E75" s="11" t="s">
-        <v>175</v>
+        <v>83</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="15" hidden="1">
@@ -3294,11 +3305,11 @@
       <c r="B135" s="41"/>
       <c r="C135" s="19">
         <f>SUM(C5:C134)</f>
-        <v>50</v>
+        <v>204</v>
       </c>
       <c r="D135" s="20">
         <f>SUBTOTAL(9,D5:D134)</f>
-        <v>56069.8</v>
+        <v>269502.00599999999</v>
       </c>
       <c r="E135" s="19"/>
     </row>
@@ -3345,7 +3356,7 @@
         <v>68</v>
       </c>
       <c r="C140" s="32">
-        <v>170000</v>
+        <v>100000</v>
       </c>
       <c r="D140" s="11"/>
       <c r="E140" s="22"/>
@@ -3399,7 +3410,7 @@
       </c>
       <c r="C145" s="29">
         <f>SUM(C139:C144)</f>
-        <v>170000</v>
+        <v>100000</v>
       </c>
       <c r="D145" s="30"/>
       <c r="E145" s="22"/>
